--- a/biology/Botanique/Capparis_spinosa/Capparis_spinosa.xlsx
+++ b/biology/Botanique/Capparis_spinosa/Capparis_spinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capparis spinosa
 Le câprier commun ou câprier épineux (Capparis spinosa L.), est une espèce d'arbrisseau méditerranéen de la famille des Capparaceae.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste à longs rameaux d'un mètre et plus, traînants, grisâtres.
 Les feuilles sont alternes, entières, simples, arrondies à ovales, épaisses, vert grisâtre, avec une paire d'épines recourbées à la base.
@@ -547,10 +561,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce méditerranéenne se trouve depuis les côtes atlantiques des îles Canaries et du Maroc jusqu'à la Mer Noire en Crimée et en Arménie et à la Mer Caspienne en Iran. Elle pousse en Afrique du Nord et de l'Est, Europe méditerranéenne, Asie occidentale. Elle a été naturalisée dans de nombreux pays au climat méditerranéen, comme les États-Unis (Californie) et l'Australie.
-En France, on trouve des câpriers sur les murs, rochers et talus bien exposés au soleil, en Provence, en Corse, dans le Languedoc, le Roussillon et la Gironde[1].
+En France, on trouve des câpriers sur les murs, rochers et talus bien exposés au soleil, en Provence, en Corse, dans le Languedoc, le Roussillon et la Gironde.
 Le câprier est naturellement abondant sur la plupart des îles méditerranéennes, et y a notamment une valeur symbolique sur certains archipels comme Malte et les îles Éoliennes.
 </t>
         </is>
@@ -580,12 +596,14 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Culinaire : Le câprier est cultivé pour ses boutons floraux qui, confits dans le vinaigre, donnent les câpres. À maturité, les boutons donnent un fruit, le câpron, également utilisé en cuisine. Les câpres sont appréciées dans la cuisine méditerranéenne, particulièrement à Chypre et en Italie. Les câpres entrent dans la composition de la tapenade, relèvent la sauce gribiche ou ravigote, agrémentent les pizzas ou les steaks tartares.
-Médicinal : L'écorce des racines est utilisée comme analgésique, pour le traitement des infections gastro-intestinales et comme diurétique. Les écorces sont récoltées en automne et séchées pour un usage ultérieur. Les boutons de fleurs sont utilisés comme laxatif et pour stimuler l'appétit. En usage externe, ils servent à soigner les infections oculaires. Ils servent à la prévention de la cataracte[2].
-Les feuilles, pliées, avec un peu d'eau ou frottées, sont utilisées en usage externe contre les piqûres d'insectes, l'urticaire[3].
-Cosmétique : Un extrait des racines est utilisé pour le traitement des plaques rouges et la faiblesse capillaire[2].
+Médicinal : L'écorce des racines est utilisée comme analgésique, pour le traitement des infections gastro-intestinales et comme diurétique. Les écorces sont récoltées en automne et séchées pour un usage ultérieur. Les boutons de fleurs sont utilisés comme laxatif et pour stimuler l'appétit. En usage externe, ils servent à soigner les infections oculaires. Ils servent à la prévention de la cataracte.
+Les feuilles, pliées, avec un peu d'eau ou frottées, sont utilisées en usage externe contre les piqûres d'insectes, l'urticaire.
+Cosmétique : Un extrait des racines est utilisé pour le traitement des plaques rouges et la faiblesse capillaire.
 Jardinage : Il est un très bon répulsif pour les taupes, plantez un pied aux 4 coins de votre potager pour les éloigner de vos cultures[réf. nécessaire].
 </t>
         </is>
@@ -617,13 +635,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Étymologie
-Câpre et Capparis viennent du latin capparis, signifiant câpre. Ce mot viendrait du grec kapparis (κάππαρις). L'origine de ce mot est inconnue. Il pourrait référer à l'île de Chypre, Kypros (Κύπρος), où les câpres poussent en abondance[4]. Il pourrait également s'agir d'un mot emprunt du persan (kabar) ou de l'arabe (qabbar)[5].
-L'adjectif spinosa vient du latin spinosus, épineux[6].
-Sous-espèces
-Capparis spinosa var spinosa : sous-espèce-type
-Capparis spinosa var inermis : sans épines.
-Capparis spinosa subsp. rupestris</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Câpre et Capparis viennent du latin capparis, signifiant câpre. Ce mot viendrait du grec kapparis (κάππαρις). L'origine de ce mot est inconnue. Il pourrait référer à l'île de Chypre, Kypros (Κύπρος), où les câpres poussent en abondance. Il pourrait également s'agir d'un mot emprunt du persan (kabar) ou de l'arabe (qabbar).
+L'adjectif spinosa vient du latin spinosus, épineux.
+</t>
         </is>
       </c>
     </row>
@@ -648,12 +668,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Capparis spinosa var spinosa : sous-espèce-type
+Capparis spinosa var inermis : sans épines.
+Capparis spinosa subsp. rupestris</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Capparis_spinosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capparis_spinosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 22e jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour du câprier[7], généralement chaque 9 août du calendrier grégorien.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22e jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour du câprier, généralement chaque 9 août du calendrier grégorien.
 </t>
         </is>
       </c>
